--- a/historico.xlsx
+++ b/historico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\streamlit\Datasetsisap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87DA93B-F6DA-422A-9CC5-5C8070BDBB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D174789D-E42D-48C6-BF36-EF777CDBE672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{957B87AD-03A2-4AD9-A5BE-52848750B04C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="uorg" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">uorg!$A$1:$E$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">uorg!$A$1:$E$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>Exercicio</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>FTH</t>
+  </si>
+  <si>
+    <t>CMF</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>RIC</t>
   </si>
 </sst>
 </file>
@@ -132,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -192,12 +201,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,8 +244,14 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -441,8 +480,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71590FD8-B182-4AF2-8E62-B47D2C52771B}" name="Tabela1" displayName="Tabela1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="A1:E41" xr:uid="{5D0359F9-E5ED-4993-9CC8-3EA4964D17FA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71590FD8-B182-4AF2-8E62-B47D2C52771B}" name="Tabela1" displayName="Tabela1" ref="A1:E56" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="A1:E56" xr:uid="{5D0359F9-E5ED-4993-9CC8-3EA4964D17FA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7A80A4ED-D16A-40B8-8E02-03DABDD361E0}" name="Uorg"/>
     <tableColumn id="2" xr3:uid="{839840B1-1D83-46C0-8789-5BA91B66CA7D}" name="Exercicio" dataDxfId="3"/>
@@ -773,10 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0359F9-E5ED-4993-9CC8-3EA4964D17FA}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +1026,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1">
@@ -998,13 +1038,13 @@
       <c r="D12" s="1">
         <v>2768</v>
       </c>
-      <c r="E12" s="6">
-        <f>C12/D12</f>
+      <c r="E12" s="5">
+        <f t="shared" ref="E12:E41" si="1">C12/D12</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1">
@@ -1016,13 +1056,13 @@
       <c r="D13" s="1">
         <v>3486</v>
       </c>
-      <c r="E13" s="6">
-        <f>C13/D13</f>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1">
@@ -1034,13 +1074,13 @@
       <c r="D14" s="1">
         <v>3840</v>
       </c>
-      <c r="E14" s="6">
-        <f>C14/D14</f>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
         <v>0.9994791666666667</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1">
@@ -1052,13 +1092,13 @@
       <c r="D15" s="1">
         <v>4092</v>
       </c>
-      <c r="E15" s="6">
-        <f>C15/D15</f>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1">
@@ -1070,13 +1110,13 @@
       <c r="D16" s="1">
         <v>4407</v>
       </c>
-      <c r="E16" s="6">
-        <f>C16/D16</f>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
         <v>0.87792148854095753</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1">
@@ -1088,13 +1128,13 @@
       <c r="D17" s="1">
         <v>7101</v>
       </c>
-      <c r="E17" s="6">
-        <f>C17/D17</f>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
         <v>0.33122095479509928</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="1">
@@ -1106,13 +1146,13 @@
       <c r="D18" s="1">
         <v>7260</v>
       </c>
-      <c r="E18" s="6">
-        <f>C18/D18</f>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
         <v>0.2622589531680441</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="1">
@@ -1124,13 +1164,13 @@
       <c r="D19" s="1">
         <v>7270</v>
       </c>
-      <c r="E19" s="6">
-        <f>C19/D19</f>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
         <v>0.9997248968363136</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="1">
@@ -1142,13 +1182,13 @@
       <c r="D20" s="1">
         <v>7386</v>
       </c>
-      <c r="E20" s="6">
-        <f>C20/D20</f>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
         <v>0.97197400487408614</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="1">
@@ -1160,13 +1200,13 @@
       <c r="D21" s="1">
         <v>8134</v>
       </c>
-      <c r="E21" s="6">
-        <f>C21/D21</f>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
         <v>0.87791984263584955</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="1">
@@ -1178,13 +1218,13 @@
       <c r="D22" s="1">
         <v>997</v>
       </c>
-      <c r="E22" s="6">
-        <f>C22/D22</f>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
         <v>1.9057171514543631E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="1">
@@ -1196,13 +1236,13 @@
       <c r="D23" s="1">
         <v>1031</v>
       </c>
-      <c r="E23" s="6">
-        <f>C23/D23</f>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="1">
@@ -1214,13 +1254,13 @@
       <c r="D24" s="1">
         <v>1178</v>
       </c>
-      <c r="E24" s="6">
-        <f>C24/D24</f>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
         <v>0.21052631578947367</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="1">
@@ -1232,13 +1272,13 @@
       <c r="D25" s="1">
         <v>1318</v>
       </c>
-      <c r="E25" s="6">
-        <f>C25/D25</f>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="1">
@@ -1250,13 +1290,13 @@
       <c r="D26" s="1">
         <v>1402</v>
       </c>
-      <c r="E26" s="6">
-        <f>C26/D26</f>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
         <v>6.2767475035663337E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1">
@@ -1268,13 +1308,13 @@
       <c r="D27" s="1">
         <v>4234</v>
       </c>
-      <c r="E27" s="6">
-        <f>C27/D27</f>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="1">
@@ -1286,13 +1326,13 @@
       <c r="D28" s="1">
         <v>4343</v>
       </c>
-      <c r="E28" s="6">
-        <f>C28/D28</f>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="1">
@@ -1304,13 +1344,13 @@
       <c r="D29" s="1">
         <v>4512</v>
       </c>
-      <c r="E29" s="6">
-        <f>C29/D29</f>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
         <v>0.22672872340425532</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1">
@@ -1322,13 +1362,13 @@
       <c r="D30" s="1">
         <v>4977</v>
       </c>
-      <c r="E30" s="6">
-        <f>C30/D30</f>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
         <v>0.38617641149286719</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="1">
@@ -1340,13 +1380,13 @@
       <c r="D31" s="1">
         <v>5076</v>
       </c>
-      <c r="E31" s="6">
-        <f>C31/D31</f>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="1">
@@ -1358,13 +1398,13 @@
       <c r="D32" s="1">
         <v>4787</v>
       </c>
-      <c r="E32" s="6">
-        <f>C32/D32</f>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
         <v>0.13390432421140588</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1">
@@ -1376,13 +1416,13 @@
       <c r="D33" s="1">
         <v>5211</v>
       </c>
-      <c r="E33" s="6">
-        <f>C33/D33</f>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
         <v>0.19573978123200922</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="1">
@@ -1394,13 +1434,13 @@
       <c r="D34" s="1">
         <v>5405</v>
       </c>
-      <c r="E34" s="6">
-        <f>C34/D34</f>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
         <v>0.24773358001850138</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="1">
@@ -1412,13 +1452,13 @@
       <c r="D35" s="1">
         <v>6086</v>
       </c>
-      <c r="E35" s="6">
-        <f>C35/D35</f>
+      <c r="E35" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="1">
@@ -1430,13 +1470,13 @@
       <c r="D36" s="1">
         <v>6179</v>
       </c>
-      <c r="E36" s="6">
-        <f>C36/D36</f>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
         <v>3.2367697038355721E-4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1">
@@ -1448,13 +1488,13 @@
       <c r="D37" s="1">
         <v>421</v>
       </c>
-      <c r="E37" s="6">
-        <f>C37/D37</f>
+      <c r="E37" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1">
@@ -1466,13 +1506,13 @@
       <c r="D38" s="1">
         <v>679</v>
       </c>
-      <c r="E38" s="6">
-        <f>C38/D38</f>
+      <c r="E38" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="1">
@@ -1484,13 +1524,13 @@
       <c r="D39" s="1">
         <v>787</v>
       </c>
-      <c r="E39" s="6">
-        <f>C39/D39</f>
+      <c r="E39" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="1">
@@ -1502,13 +1542,13 @@
       <c r="D40" s="1">
         <v>916</v>
       </c>
-      <c r="E40" s="6">
-        <f>C40/D40</f>
+      <c r="E40" s="5">
+        <f t="shared" si="1"/>
         <v>0.98034934497816595</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="1">
@@ -1520,8 +1560,278 @@
       <c r="D41" s="1">
         <v>925</v>
       </c>
-      <c r="E41" s="6">
-        <f>C41/D41</f>
+      <c r="E41" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1719</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3322</v>
+      </c>
+      <c r="E42" s="8">
+        <f>C42/D42</f>
+        <v>0.51745936183022279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2933</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3433</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" ref="E43:E46" si="2">C43/D43</f>
+        <v>0.85435479172735218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3576</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3576</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3798</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3798</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3955</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3955</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C47" s="1">
+        <v>38</v>
+      </c>
+      <c r="D47" s="1">
+        <v>411</v>
+      </c>
+      <c r="E47" s="8">
+        <f>C47/D47</f>
+        <v>9.2457420924574207E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1206</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1206</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" ref="E48:E51" si="3">C48/D48</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2285</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2285</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2672</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2672</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3059</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3059</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C52" s="1">
+        <v>572</v>
+      </c>
+      <c r="D52" s="1">
+        <v>572</v>
+      </c>
+      <c r="E52" s="8">
+        <f>C52/D52</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C53" s="1">
+        <v>23</v>
+      </c>
+      <c r="D53" s="1">
+        <v>707</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" ref="E53:E56" si="4">C53/D53</f>
+        <v>3.2531824611032531E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C54" s="1">
+        <v>593</v>
+      </c>
+      <c r="D54" s="1">
+        <v>593</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C55" s="1">
+        <v>9385</v>
+      </c>
+      <c r="D55" s="1">
+        <v>9385</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C56" s="1">
+        <v>9368</v>
+      </c>
+      <c r="D56" s="1">
+        <v>9368</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
